--- a/biology/Écologie/Laboratoire_d’écologie_des_hydrosystèmes_naturels_et_anthropisés/Laboratoire_d’écologie_des_hydrosystèmes_naturels_et_anthropisés.xlsx
+++ b/biology/Écologie/Laboratoire_d’écologie_des_hydrosystèmes_naturels_et_anthropisés/Laboratoire_d’écologie_des_hydrosystèmes_naturels_et_anthropisés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Laboratoire_d%E2%80%99%C3%A9cologie_des_hydrosyst%C3%A8mes_naturels_et_anthropis%C3%A9s</t>
+          <t>Laboratoire_d’écologie_des_hydrosystèmes_naturels_et_anthropisés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le laboratoire d’écologie des hydrosystèmes naturels et anthropisés (LEHNA) est une unité de recherche spécialisée dans l'écologie dont le siège se situe à Villeurbanne, dans le département du Rhône.
 Il est placé sous plusieurs tutelles : le CNRS (UMR 5023), l'université Claude-Bernard-Lyon-I, l'Institut national de la recherche agronomique et l'École nationale des travaux publics de l'État.
-Les études sont effectuées autour de cinq équipes[1] :
+Les études sont effectuées autour de cinq équipes :
 Biodiversité des écosystèmes lotiques ;
 écologie végétale et zones humides ;
 écologie, évolution, écosystèmes souterrains ;
